--- a/xlsx/伍德兰期_intext.xlsx
+++ b/xlsx/伍德兰期_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_伍德兰期</t>
+    <t>政策_政策_美国_伍德兰期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%B6%E6%9C%9F</t>
